--- a/results/stats/welch/f_sel/stat_cmp_species.xlsx
+++ b/results/stats/welch/f_sel/stat_cmp_species.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S301"/>
+  <dimension ref="A1:S373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23030,6 +23030,5406 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>5.801343704191671e-113</v>
+      </c>
+      <c r="H302" t="n">
+        <v>181</v>
+      </c>
+      <c r="I302" t="n">
+        <v>198</v>
+      </c>
+      <c r="J302" t="n">
+        <v>11</v>
+      </c>
+      <c r="K302" t="n">
+        <v>21</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>11</v>
+      </c>
+      <c r="O302" t="n">
+        <v>21</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>5.028411901630127e-99</v>
+      </c>
+      <c r="H303" t="n">
+        <v>182</v>
+      </c>
+      <c r="I303" t="n">
+        <v>152</v>
+      </c>
+      <c r="J303" t="n">
+        <v>11</v>
+      </c>
+      <c r="K303" t="n">
+        <v>21</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>11</v>
+      </c>
+      <c r="O303" t="n">
+        <v>21</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>9.753486508360198e-24</v>
+      </c>
+      <c r="H304" t="n">
+        <v>101</v>
+      </c>
+      <c r="I304" t="n">
+        <v>21</v>
+      </c>
+      <c r="J304" t="n">
+        <v>11</v>
+      </c>
+      <c r="K304" t="n">
+        <v>17</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>11</v>
+      </c>
+      <c r="O304" t="n">
+        <v>17</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>2.024973317986462e-34</v>
+      </c>
+      <c r="H305" t="n">
+        <v>103</v>
+      </c>
+      <c r="I305" t="n">
+        <v>37</v>
+      </c>
+      <c r="J305" t="n">
+        <v>10</v>
+      </c>
+      <c r="K305" t="n">
+        <v>20</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>10</v>
+      </c>
+      <c r="O305" t="n">
+        <v>20</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>1.360687991874416e-87</v>
+      </c>
+      <c r="H306" t="n">
+        <v>146</v>
+      </c>
+      <c r="I306" t="n">
+        <v>148</v>
+      </c>
+      <c r="J306" t="n">
+        <v>10</v>
+      </c>
+      <c r="K306" t="n">
+        <v>19</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>10</v>
+      </c>
+      <c r="O306" t="n">
+        <v>19</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>2.659121129292104e-135</v>
+      </c>
+      <c r="H307" t="n">
+        <v>104</v>
+      </c>
+      <c r="I307" t="n">
+        <v>730</v>
+      </c>
+      <c r="J307" t="n">
+        <v>11</v>
+      </c>
+      <c r="K307" t="n">
+        <v>21</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>11</v>
+      </c>
+      <c r="O307" t="n">
+        <v>21</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>3.32798230862694e-84</v>
+      </c>
+      <c r="H308" t="n">
+        <v>105</v>
+      </c>
+      <c r="I308" t="n">
+        <v>199</v>
+      </c>
+      <c r="J308" t="n">
+        <v>11</v>
+      </c>
+      <c r="K308" t="n">
+        <v>21</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>11</v>
+      </c>
+      <c r="O308" t="n">
+        <v>21</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>2.836622737620983e-28</v>
+      </c>
+      <c r="H309" t="n">
+        <v>111</v>
+      </c>
+      <c r="I309" t="n">
+        <v>26</v>
+      </c>
+      <c r="J309" t="n">
+        <v>11</v>
+      </c>
+      <c r="K309" t="n">
+        <v>17</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>11</v>
+      </c>
+      <c r="O309" t="n">
+        <v>17</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>3.334612157853187e-37</v>
+      </c>
+      <c r="H310" t="n">
+        <v>111</v>
+      </c>
+      <c r="I310" t="n">
+        <v>40</v>
+      </c>
+      <c r="J310" t="n">
+        <v>10</v>
+      </c>
+      <c r="K310" t="n">
+        <v>20</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>10</v>
+      </c>
+      <c r="O310" t="n">
+        <v>20</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>1.039536368809776e-121</v>
+      </c>
+      <c r="H311" t="n">
+        <v>127</v>
+      </c>
+      <c r="I311" t="n">
+        <v>370</v>
+      </c>
+      <c r="J311" t="n">
+        <v>10</v>
+      </c>
+      <c r="K311" t="n">
+        <v>19</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>10</v>
+      </c>
+      <c r="O311" t="n">
+        <v>19</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
+        <v>3.427585938648522e-84</v>
+      </c>
+      <c r="H312" t="n">
+        <v>181</v>
+      </c>
+      <c r="I312" t="n">
+        <v>198</v>
+      </c>
+      <c r="J312" t="n">
+        <v>11</v>
+      </c>
+      <c r="K312" t="n">
+        <v>21</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>11</v>
+      </c>
+      <c r="O312" t="n">
+        <v>21</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>2.160903715491308e-74</v>
+      </c>
+      <c r="H313" t="n">
+        <v>182</v>
+      </c>
+      <c r="I313" t="n">
+        <v>152</v>
+      </c>
+      <c r="J313" t="n">
+        <v>11</v>
+      </c>
+      <c r="K313" t="n">
+        <v>21</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" t="n">
+        <v>11</v>
+      </c>
+      <c r="O313" t="n">
+        <v>21</v>
+      </c>
+      <c r="P313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>4.047481743345208e-28</v>
+      </c>
+      <c r="H314" t="n">
+        <v>101</v>
+      </c>
+      <c r="I314" t="n">
+        <v>21</v>
+      </c>
+      <c r="J314" t="n">
+        <v>11</v>
+      </c>
+      <c r="K314" t="n">
+        <v>17</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" t="n">
+        <v>11</v>
+      </c>
+      <c r="O314" t="n">
+        <v>17</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>4.569267010792082e-32</v>
+      </c>
+      <c r="H315" t="n">
+        <v>103</v>
+      </c>
+      <c r="I315" t="n">
+        <v>37</v>
+      </c>
+      <c r="J315" t="n">
+        <v>10</v>
+      </c>
+      <c r="K315" t="n">
+        <v>20</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>10</v>
+      </c>
+      <c r="O315" t="n">
+        <v>20</v>
+      </c>
+      <c r="P315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>1.118931832041991e-65</v>
+      </c>
+      <c r="H316" t="n">
+        <v>146</v>
+      </c>
+      <c r="I316" t="n">
+        <v>148</v>
+      </c>
+      <c r="J316" t="n">
+        <v>10</v>
+      </c>
+      <c r="K316" t="n">
+        <v>19</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" t="n">
+        <v>10</v>
+      </c>
+      <c r="O316" t="n">
+        <v>19</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>3.649361021743817e-183</v>
+      </c>
+      <c r="H317" t="n">
+        <v>104</v>
+      </c>
+      <c r="I317" t="n">
+        <v>730</v>
+      </c>
+      <c r="J317" t="n">
+        <v>11</v>
+      </c>
+      <c r="K317" t="n">
+        <v>21</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>11</v>
+      </c>
+      <c r="O317" t="n">
+        <v>21</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>7.421664171338283e-68</v>
+      </c>
+      <c r="H318" t="n">
+        <v>105</v>
+      </c>
+      <c r="I318" t="n">
+        <v>199</v>
+      </c>
+      <c r="J318" t="n">
+        <v>11</v>
+      </c>
+      <c r="K318" t="n">
+        <v>21</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>11</v>
+      </c>
+      <c r="O318" t="n">
+        <v>21</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>2.09227956424639e-31</v>
+      </c>
+      <c r="H319" t="n">
+        <v>111</v>
+      </c>
+      <c r="I319" t="n">
+        <v>26</v>
+      </c>
+      <c r="J319" t="n">
+        <v>11</v>
+      </c>
+      <c r="K319" t="n">
+        <v>17</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>11</v>
+      </c>
+      <c r="O319" t="n">
+        <v>17</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>1.793604779219351e-34</v>
+      </c>
+      <c r="H320" t="n">
+        <v>111</v>
+      </c>
+      <c r="I320" t="n">
+        <v>40</v>
+      </c>
+      <c r="J320" t="n">
+        <v>10</v>
+      </c>
+      <c r="K320" t="n">
+        <v>20</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>10</v>
+      </c>
+      <c r="O320" t="n">
+        <v>20</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>7.126721906215904e-110</v>
+      </c>
+      <c r="H321" t="n">
+        <v>127</v>
+      </c>
+      <c r="I321" t="n">
+        <v>370</v>
+      </c>
+      <c r="J321" t="n">
+        <v>10</v>
+      </c>
+      <c r="K321" t="n">
+        <v>19</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" t="n">
+        <v>10</v>
+      </c>
+      <c r="O321" t="n">
+        <v>19</v>
+      </c>
+      <c r="P321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>2.950995028760086e-143</v>
+      </c>
+      <c r="H322" t="n">
+        <v>101</v>
+      </c>
+      <c r="I322" t="n">
+        <v>945</v>
+      </c>
+      <c r="J322" t="n">
+        <v>11</v>
+      </c>
+      <c r="K322" t="n">
+        <v>20</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" t="n">
+        <v>11</v>
+      </c>
+      <c r="O322" t="n">
+        <v>20</v>
+      </c>
+      <c r="P322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>4.466800231079439e-146</v>
+      </c>
+      <c r="H323" t="n">
+        <v>103</v>
+      </c>
+      <c r="I323" t="n">
+        <v>963</v>
+      </c>
+      <c r="J323" t="n">
+        <v>10</v>
+      </c>
+      <c r="K323" t="n">
+        <v>11</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>10</v>
+      </c>
+      <c r="O323" t="n">
+        <v>11</v>
+      </c>
+      <c r="P323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>9.201081284056275e-146</v>
+      </c>
+      <c r="H324" t="n">
+        <v>111</v>
+      </c>
+      <c r="I324" t="n">
+        <v>802</v>
+      </c>
+      <c r="J324" t="n">
+        <v>11</v>
+      </c>
+      <c r="K324" t="n">
+        <v>20</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" t="n">
+        <v>11</v>
+      </c>
+      <c r="O324" t="n">
+        <v>20</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>1.180147511164639e-146</v>
+      </c>
+      <c r="H325" t="n">
+        <v>111</v>
+      </c>
+      <c r="I325" t="n">
+        <v>818</v>
+      </c>
+      <c r="J325" t="n">
+        <v>10</v>
+      </c>
+      <c r="K325" t="n">
+        <v>11</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>10</v>
+      </c>
+      <c r="O325" t="n">
+        <v>11</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>3.005107423143033e-229</v>
+      </c>
+      <c r="H326" t="n">
+        <v>101</v>
+      </c>
+      <c r="I326" t="n">
+        <v>945</v>
+      </c>
+      <c r="J326" t="n">
+        <v>11</v>
+      </c>
+      <c r="K326" t="n">
+        <v>20</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>11</v>
+      </c>
+      <c r="O326" t="n">
+        <v>20</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
+        <v>1.351183113888228e-233</v>
+      </c>
+      <c r="H327" t="n">
+        <v>103</v>
+      </c>
+      <c r="I327" t="n">
+        <v>963</v>
+      </c>
+      <c r="J327" t="n">
+        <v>10</v>
+      </c>
+      <c r="K327" t="n">
+        <v>11</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>10</v>
+      </c>
+      <c r="O327" t="n">
+        <v>11</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>2.441394907415007e-200</v>
+      </c>
+      <c r="H328" t="n">
+        <v>111</v>
+      </c>
+      <c r="I328" t="n">
+        <v>802</v>
+      </c>
+      <c r="J328" t="n">
+        <v>11</v>
+      </c>
+      <c r="K328" t="n">
+        <v>20</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>11</v>
+      </c>
+      <c r="O328" t="n">
+        <v>20</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>8.119012035550005e-204</v>
+      </c>
+      <c r="H329" t="n">
+        <v>111</v>
+      </c>
+      <c r="I329" t="n">
+        <v>818</v>
+      </c>
+      <c r="J329" t="n">
+        <v>10</v>
+      </c>
+      <c r="K329" t="n">
+        <v>11</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>10</v>
+      </c>
+      <c r="O329" t="n">
+        <v>11</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>2.629911442965794e-43</v>
+      </c>
+      <c r="H330" t="n">
+        <v>21</v>
+      </c>
+      <c r="I330" t="n">
+        <v>945</v>
+      </c>
+      <c r="J330" t="n">
+        <v>17</v>
+      </c>
+      <c r="K330" t="n">
+        <v>20</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>17</v>
+      </c>
+      <c r="O330" t="n">
+        <v>20</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>5.402462167554223e-68</v>
+      </c>
+      <c r="H331" t="n">
+        <v>37</v>
+      </c>
+      <c r="I331" t="n">
+        <v>963</v>
+      </c>
+      <c r="J331" t="n">
+        <v>20</v>
+      </c>
+      <c r="K331" t="n">
+        <v>11</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>20</v>
+      </c>
+      <c r="O331" t="n">
+        <v>11</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>1.62219661460653e-49</v>
+      </c>
+      <c r="H332" t="n">
+        <v>26</v>
+      </c>
+      <c r="I332" t="n">
+        <v>802</v>
+      </c>
+      <c r="J332" t="n">
+        <v>17</v>
+      </c>
+      <c r="K332" t="n">
+        <v>20</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>17</v>
+      </c>
+      <c r="O332" t="n">
+        <v>20</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>1.88017744914777e-69</v>
+      </c>
+      <c r="H333" t="n">
+        <v>40</v>
+      </c>
+      <c r="I333" t="n">
+        <v>818</v>
+      </c>
+      <c r="J333" t="n">
+        <v>20</v>
+      </c>
+      <c r="K333" t="n">
+        <v>11</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" t="n">
+        <v>20</v>
+      </c>
+      <c r="O333" t="n">
+        <v>11</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G334" t="n">
+        <v>7.64327849778643e-212</v>
+      </c>
+      <c r="H334" t="n">
+        <v>21</v>
+      </c>
+      <c r="I334" t="n">
+        <v>945</v>
+      </c>
+      <c r="J334" t="n">
+        <v>17</v>
+      </c>
+      <c r="K334" t="n">
+        <v>20</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>17</v>
+      </c>
+      <c r="O334" t="n">
+        <v>20</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G335" t="n">
+        <v>3.046621022829557e-219</v>
+      </c>
+      <c r="H335" t="n">
+        <v>37</v>
+      </c>
+      <c r="I335" t="n">
+        <v>963</v>
+      </c>
+      <c r="J335" t="n">
+        <v>20</v>
+      </c>
+      <c r="K335" t="n">
+        <v>11</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>20</v>
+      </c>
+      <c r="O335" t="n">
+        <v>11</v>
+      </c>
+      <c r="P335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G336" t="n">
+        <v>7.570771856207098e-182</v>
+      </c>
+      <c r="H336" t="n">
+        <v>26</v>
+      </c>
+      <c r="I336" t="n">
+        <v>802</v>
+      </c>
+      <c r="J336" t="n">
+        <v>17</v>
+      </c>
+      <c r="K336" t="n">
+        <v>20</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>17</v>
+      </c>
+      <c r="O336" t="n">
+        <v>20</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G337" t="n">
+        <v>2.244641269301867e-188</v>
+      </c>
+      <c r="H337" t="n">
+        <v>40</v>
+      </c>
+      <c r="I337" t="n">
+        <v>818</v>
+      </c>
+      <c r="J337" t="n">
+        <v>20</v>
+      </c>
+      <c r="K337" t="n">
+        <v>11</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>20</v>
+      </c>
+      <c r="O337" t="n">
+        <v>11</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>5.801343704191671e-113</v>
+      </c>
+      <c r="H338" t="n">
+        <v>181</v>
+      </c>
+      <c r="I338" t="n">
+        <v>198</v>
+      </c>
+      <c r="J338" t="n">
+        <v>11</v>
+      </c>
+      <c r="K338" t="n">
+        <v>21</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>11</v>
+      </c>
+      <c r="O338" t="n">
+        <v>21</v>
+      </c>
+      <c r="P338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G339" t="n">
+        <v>5.028411901630127e-99</v>
+      </c>
+      <c r="H339" t="n">
+        <v>182</v>
+      </c>
+      <c r="I339" t="n">
+        <v>152</v>
+      </c>
+      <c r="J339" t="n">
+        <v>11</v>
+      </c>
+      <c r="K339" t="n">
+        <v>21</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" t="n">
+        <v>11</v>
+      </c>
+      <c r="O339" t="n">
+        <v>21</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G340" t="n">
+        <v>9.753486508360198e-24</v>
+      </c>
+      <c r="H340" t="n">
+        <v>101</v>
+      </c>
+      <c r="I340" t="n">
+        <v>21</v>
+      </c>
+      <c r="J340" t="n">
+        <v>11</v>
+      </c>
+      <c r="K340" t="n">
+        <v>17</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>11</v>
+      </c>
+      <c r="O340" t="n">
+        <v>17</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G341" t="n">
+        <v>2.024973317986462e-34</v>
+      </c>
+      <c r="H341" t="n">
+        <v>103</v>
+      </c>
+      <c r="I341" t="n">
+        <v>37</v>
+      </c>
+      <c r="J341" t="n">
+        <v>10</v>
+      </c>
+      <c r="K341" t="n">
+        <v>20</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>10</v>
+      </c>
+      <c r="O341" t="n">
+        <v>20</v>
+      </c>
+      <c r="P341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G342" t="n">
+        <v>1.360687991874416e-87</v>
+      </c>
+      <c r="H342" t="n">
+        <v>146</v>
+      </c>
+      <c r="I342" t="n">
+        <v>148</v>
+      </c>
+      <c r="J342" t="n">
+        <v>10</v>
+      </c>
+      <c r="K342" t="n">
+        <v>19</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>10</v>
+      </c>
+      <c r="O342" t="n">
+        <v>19</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G343" t="n">
+        <v>2.659121129292104e-135</v>
+      </c>
+      <c r="H343" t="n">
+        <v>104</v>
+      </c>
+      <c r="I343" t="n">
+        <v>730</v>
+      </c>
+      <c r="J343" t="n">
+        <v>11</v>
+      </c>
+      <c r="K343" t="n">
+        <v>21</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N343" t="n">
+        <v>11</v>
+      </c>
+      <c r="O343" t="n">
+        <v>21</v>
+      </c>
+      <c r="P343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G344" t="n">
+        <v>3.32798230862694e-84</v>
+      </c>
+      <c r="H344" t="n">
+        <v>105</v>
+      </c>
+      <c r="I344" t="n">
+        <v>199</v>
+      </c>
+      <c r="J344" t="n">
+        <v>11</v>
+      </c>
+      <c r="K344" t="n">
+        <v>21</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N344" t="n">
+        <v>11</v>
+      </c>
+      <c r="O344" t="n">
+        <v>21</v>
+      </c>
+      <c r="P344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>2.836622737620983e-28</v>
+      </c>
+      <c r="H345" t="n">
+        <v>111</v>
+      </c>
+      <c r="I345" t="n">
+        <v>26</v>
+      </c>
+      <c r="J345" t="n">
+        <v>11</v>
+      </c>
+      <c r="K345" t="n">
+        <v>17</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N345" t="n">
+        <v>11</v>
+      </c>
+      <c r="O345" t="n">
+        <v>17</v>
+      </c>
+      <c r="P345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>3.334612157853187e-37</v>
+      </c>
+      <c r="H346" t="n">
+        <v>111</v>
+      </c>
+      <c r="I346" t="n">
+        <v>40</v>
+      </c>
+      <c r="J346" t="n">
+        <v>10</v>
+      </c>
+      <c r="K346" t="n">
+        <v>20</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N346" t="n">
+        <v>10</v>
+      </c>
+      <c r="O346" t="n">
+        <v>20</v>
+      </c>
+      <c r="P346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>1.039536368809776e-121</v>
+      </c>
+      <c r="H347" t="n">
+        <v>127</v>
+      </c>
+      <c r="I347" t="n">
+        <v>370</v>
+      </c>
+      <c r="J347" t="n">
+        <v>10</v>
+      </c>
+      <c r="K347" t="n">
+        <v>19</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" t="n">
+        <v>10</v>
+      </c>
+      <c r="O347" t="n">
+        <v>19</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>3.427585938648522e-84</v>
+      </c>
+      <c r="H348" t="n">
+        <v>181</v>
+      </c>
+      <c r="I348" t="n">
+        <v>198</v>
+      </c>
+      <c r="J348" t="n">
+        <v>11</v>
+      </c>
+      <c r="K348" t="n">
+        <v>21</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>11</v>
+      </c>
+      <c r="O348" t="n">
+        <v>21</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>2.160903715491308e-74</v>
+      </c>
+      <c r="H349" t="n">
+        <v>182</v>
+      </c>
+      <c r="I349" t="n">
+        <v>152</v>
+      </c>
+      <c r="J349" t="n">
+        <v>11</v>
+      </c>
+      <c r="K349" t="n">
+        <v>21</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>11</v>
+      </c>
+      <c r="O349" t="n">
+        <v>21</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>4.047481743345208e-28</v>
+      </c>
+      <c r="H350" t="n">
+        <v>101</v>
+      </c>
+      <c r="I350" t="n">
+        <v>21</v>
+      </c>
+      <c r="J350" t="n">
+        <v>11</v>
+      </c>
+      <c r="K350" t="n">
+        <v>17</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>11</v>
+      </c>
+      <c r="O350" t="n">
+        <v>17</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>4.569267010792082e-32</v>
+      </c>
+      <c r="H351" t="n">
+        <v>103</v>
+      </c>
+      <c r="I351" t="n">
+        <v>37</v>
+      </c>
+      <c r="J351" t="n">
+        <v>10</v>
+      </c>
+      <c r="K351" t="n">
+        <v>20</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>10</v>
+      </c>
+      <c r="O351" t="n">
+        <v>20</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>1.118931832041991e-65</v>
+      </c>
+      <c r="H352" t="n">
+        <v>146</v>
+      </c>
+      <c r="I352" t="n">
+        <v>148</v>
+      </c>
+      <c r="J352" t="n">
+        <v>10</v>
+      </c>
+      <c r="K352" t="n">
+        <v>19</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N352" t="n">
+        <v>10</v>
+      </c>
+      <c r="O352" t="n">
+        <v>19</v>
+      </c>
+      <c r="P352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G353" t="n">
+        <v>3.649361021743817e-183</v>
+      </c>
+      <c r="H353" t="n">
+        <v>104</v>
+      </c>
+      <c r="I353" t="n">
+        <v>730</v>
+      </c>
+      <c r="J353" t="n">
+        <v>11</v>
+      </c>
+      <c r="K353" t="n">
+        <v>21</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N353" t="n">
+        <v>11</v>
+      </c>
+      <c r="O353" t="n">
+        <v>21</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G354" t="n">
+        <v>7.421664171338283e-68</v>
+      </c>
+      <c r="H354" t="n">
+        <v>105</v>
+      </c>
+      <c r="I354" t="n">
+        <v>199</v>
+      </c>
+      <c r="J354" t="n">
+        <v>11</v>
+      </c>
+      <c r="K354" t="n">
+        <v>21</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N354" t="n">
+        <v>11</v>
+      </c>
+      <c r="O354" t="n">
+        <v>21</v>
+      </c>
+      <c r="P354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G355" t="n">
+        <v>2.09227956424639e-31</v>
+      </c>
+      <c r="H355" t="n">
+        <v>111</v>
+      </c>
+      <c r="I355" t="n">
+        <v>26</v>
+      </c>
+      <c r="J355" t="n">
+        <v>11</v>
+      </c>
+      <c r="K355" t="n">
+        <v>17</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N355" t="n">
+        <v>11</v>
+      </c>
+      <c r="O355" t="n">
+        <v>17</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S355" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>1.793604779219351e-34</v>
+      </c>
+      <c r="H356" t="n">
+        <v>111</v>
+      </c>
+      <c r="I356" t="n">
+        <v>40</v>
+      </c>
+      <c r="J356" t="n">
+        <v>10</v>
+      </c>
+      <c r="K356" t="n">
+        <v>20</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>10</v>
+      </c>
+      <c r="O356" t="n">
+        <v>20</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S356" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G357" t="n">
+        <v>7.126721906215904e-110</v>
+      </c>
+      <c r="H357" t="n">
+        <v>127</v>
+      </c>
+      <c r="I357" t="n">
+        <v>370</v>
+      </c>
+      <c r="J357" t="n">
+        <v>10</v>
+      </c>
+      <c r="K357" t="n">
+        <v>19</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N357" t="n">
+        <v>10</v>
+      </c>
+      <c r="O357" t="n">
+        <v>19</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S357" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G358" t="n">
+        <v>2.950995028760086e-143</v>
+      </c>
+      <c r="H358" t="n">
+        <v>101</v>
+      </c>
+      <c r="I358" t="n">
+        <v>945</v>
+      </c>
+      <c r="J358" t="n">
+        <v>11</v>
+      </c>
+      <c r="K358" t="n">
+        <v>24</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N358" t="n">
+        <v>11</v>
+      </c>
+      <c r="O358" t="n">
+        <v>24</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G359" t="n">
+        <v>4.466800231079439e-146</v>
+      </c>
+      <c r="H359" t="n">
+        <v>103</v>
+      </c>
+      <c r="I359" t="n">
+        <v>963</v>
+      </c>
+      <c r="J359" t="n">
+        <v>10</v>
+      </c>
+      <c r="K359" t="n">
+        <v>24</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N359" t="n">
+        <v>10</v>
+      </c>
+      <c r="O359" t="n">
+        <v>24</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G360" t="n">
+        <v>9.201081284056275e-146</v>
+      </c>
+      <c r="H360" t="n">
+        <v>111</v>
+      </c>
+      <c r="I360" t="n">
+        <v>802</v>
+      </c>
+      <c r="J360" t="n">
+        <v>11</v>
+      </c>
+      <c r="K360" t="n">
+        <v>24</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N360" t="n">
+        <v>11</v>
+      </c>
+      <c r="O360" t="n">
+        <v>24</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S360" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G361" t="n">
+        <v>1.180147511164639e-146</v>
+      </c>
+      <c r="H361" t="n">
+        <v>111</v>
+      </c>
+      <c r="I361" t="n">
+        <v>818</v>
+      </c>
+      <c r="J361" t="n">
+        <v>10</v>
+      </c>
+      <c r="K361" t="n">
+        <v>24</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N361" t="n">
+        <v>10</v>
+      </c>
+      <c r="O361" t="n">
+        <v>24</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S361" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G362" t="n">
+        <v>3.005107423143033e-229</v>
+      </c>
+      <c r="H362" t="n">
+        <v>101</v>
+      </c>
+      <c r="I362" t="n">
+        <v>945</v>
+      </c>
+      <c r="J362" t="n">
+        <v>11</v>
+      </c>
+      <c r="K362" t="n">
+        <v>24</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N362" t="n">
+        <v>11</v>
+      </c>
+      <c r="O362" t="n">
+        <v>24</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S362" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G363" t="n">
+        <v>1.351183113888228e-233</v>
+      </c>
+      <c r="H363" t="n">
+        <v>103</v>
+      </c>
+      <c r="I363" t="n">
+        <v>963</v>
+      </c>
+      <c r="J363" t="n">
+        <v>10</v>
+      </c>
+      <c r="K363" t="n">
+        <v>24</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N363" t="n">
+        <v>10</v>
+      </c>
+      <c r="O363" t="n">
+        <v>24</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S363" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G364" t="n">
+        <v>2.441394907415007e-200</v>
+      </c>
+      <c r="H364" t="n">
+        <v>111</v>
+      </c>
+      <c r="I364" t="n">
+        <v>802</v>
+      </c>
+      <c r="J364" t="n">
+        <v>11</v>
+      </c>
+      <c r="K364" t="n">
+        <v>24</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N364" t="n">
+        <v>11</v>
+      </c>
+      <c r="O364" t="n">
+        <v>24</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S364" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G365" t="n">
+        <v>8.119012035550005e-204</v>
+      </c>
+      <c r="H365" t="n">
+        <v>111</v>
+      </c>
+      <c r="I365" t="n">
+        <v>818</v>
+      </c>
+      <c r="J365" t="n">
+        <v>10</v>
+      </c>
+      <c r="K365" t="n">
+        <v>24</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N365" t="n">
+        <v>10</v>
+      </c>
+      <c r="O365" t="n">
+        <v>24</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="S365" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G366" t="n">
+        <v>2.629911442965794e-43</v>
+      </c>
+      <c r="H366" t="n">
+        <v>21</v>
+      </c>
+      <c r="I366" t="n">
+        <v>945</v>
+      </c>
+      <c r="J366" t="n">
+        <v>17</v>
+      </c>
+      <c r="K366" t="n">
+        <v>24</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N366" t="n">
+        <v>17</v>
+      </c>
+      <c r="O366" t="n">
+        <v>24</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S366" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G367" t="n">
+        <v>5.402462167554223e-68</v>
+      </c>
+      <c r="H367" t="n">
+        <v>37</v>
+      </c>
+      <c r="I367" t="n">
+        <v>963</v>
+      </c>
+      <c r="J367" t="n">
+        <v>20</v>
+      </c>
+      <c r="K367" t="n">
+        <v>24</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N367" t="n">
+        <v>20</v>
+      </c>
+      <c r="O367" t="n">
+        <v>24</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S367" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G368" t="n">
+        <v>1.62219661460653e-49</v>
+      </c>
+      <c r="H368" t="n">
+        <v>26</v>
+      </c>
+      <c r="I368" t="n">
+        <v>802</v>
+      </c>
+      <c r="J368" t="n">
+        <v>17</v>
+      </c>
+      <c r="K368" t="n">
+        <v>24</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>17</v>
+      </c>
+      <c r="O368" t="n">
+        <v>24</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S368" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G369" t="n">
+        <v>1.88017744914777e-69</v>
+      </c>
+      <c r="H369" t="n">
+        <v>40</v>
+      </c>
+      <c r="I369" t="n">
+        <v>818</v>
+      </c>
+      <c r="J369" t="n">
+        <v>20</v>
+      </c>
+      <c r="K369" t="n">
+        <v>24</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N369" t="n">
+        <v>20</v>
+      </c>
+      <c r="O369" t="n">
+        <v>24</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S369" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G370" t="n">
+        <v>7.64327849778643e-212</v>
+      </c>
+      <c r="H370" t="n">
+        <v>21</v>
+      </c>
+      <c r="I370" t="n">
+        <v>945</v>
+      </c>
+      <c r="J370" t="n">
+        <v>17</v>
+      </c>
+      <c r="K370" t="n">
+        <v>24</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>17</v>
+      </c>
+      <c r="O370" t="n">
+        <v>24</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S370" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G371" t="n">
+        <v>3.046621022829557e-219</v>
+      </c>
+      <c r="H371" t="n">
+        <v>37</v>
+      </c>
+      <c r="I371" t="n">
+        <v>963</v>
+      </c>
+      <c r="J371" t="n">
+        <v>20</v>
+      </c>
+      <c r="K371" t="n">
+        <v>24</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N371" t="n">
+        <v>20</v>
+      </c>
+      <c r="O371" t="n">
+        <v>24</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S371" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G372" t="n">
+        <v>7.570771856207098e-182</v>
+      </c>
+      <c r="H372" t="n">
+        <v>26</v>
+      </c>
+      <c r="I372" t="n">
+        <v>802</v>
+      </c>
+      <c r="J372" t="n">
+        <v>17</v>
+      </c>
+      <c r="K372" t="n">
+        <v>24</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N372" t="n">
+        <v>17</v>
+      </c>
+      <c r="O372" t="n">
+        <v>24</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S372" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G373" t="n">
+        <v>2.244641269301867e-188</v>
+      </c>
+      <c r="H373" t="n">
+        <v>40</v>
+      </c>
+      <c r="I373" t="n">
+        <v>818</v>
+      </c>
+      <c r="J373" t="n">
+        <v>20</v>
+      </c>
+      <c r="K373" t="n">
+        <v>24</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N373" t="n">
+        <v>20</v>
+      </c>
+      <c r="O373" t="n">
+        <v>24</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="S373" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
